--- a/documents/ECE411_BOM.xlsx
+++ b/documents/ECE411_BOM.xlsx
@@ -9,19 +9,19 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj5yVGrJSC5cOZOxP51zGvrqJ8NNA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miPYvX28kHBOjJBfOsD3wb9txeJjA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
   <si>
     <t>Bill Of Materials for: PRACTICUM GROUP THREE</t>
   </si>
   <si>
-    <t>Last modified: November 9th, 2022</t>
+    <t>Last modified: December 6th, 2022</t>
   </si>
   <si>
     <t>PCB version: One</t>
@@ -105,16 +105,16 @@
     <t>DISP</t>
   </si>
   <si>
-    <t>Orient-Display</t>
-  </si>
-  <si>
-    <t>AOM6448A0-0.66WW-ANO</t>
-  </si>
-  <si>
-    <t>Arduino OLED .66" 64X48 Display</t>
-  </si>
-  <si>
-    <t>3444-AOM6448A0-0.66WW-ANO-ND</t>
+    <t>HiLetgo</t>
+  </si>
+  <si>
+    <t>03-01-1498</t>
+  </si>
+  <si>
+    <t>SPI Serial Interface Adapter 1602 LCD Display</t>
+  </si>
+  <si>
+    <t>B07W5KC65S</t>
   </si>
   <si>
     <t>BS</t>
@@ -135,45 +135,97 @@
     <t>3046-9V-MN1604-ND</t>
   </si>
   <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t>Keystone Electronics</t>
+  </si>
+  <si>
+    <t>9V Battery Clip Connector to Breadboard</t>
+  </si>
+  <si>
+    <t>36-2242-ND</t>
+  </si>
+  <si>
     <t>SW1</t>
   </si>
   <si>
-    <t>Weideer</t>
-  </si>
-  <si>
-    <t>CA-R13-507-5-X</t>
-  </si>
-  <si>
-    <t>16mm Momentary Push Button Switch 5X</t>
-  </si>
-  <si>
-    <t>1276-6472-1-ND</t>
-  </si>
-  <si>
-    <t>CLP</t>
-  </si>
-  <si>
-    <t>Keystone Electronics</t>
-  </si>
-  <si>
-    <t>9V Battery Clip Connector to Breadboard</t>
-  </si>
-  <si>
-    <t>36-2242-ND</t>
-  </si>
-  <si>
-    <t>WIRE</t>
-  </si>
-  <si>
-    <t>TODOELEC</t>
-  </si>
-  <si>
-    <t>TD-JW-001-05312020</t>
+    <t>Taiss</t>
+  </si>
+  <si>
+    <t>KY-040</t>
+  </si>
+  <si>
+    <t>Rotary Encoder Module with Knob</t>
+  </si>
+  <si>
+    <t>BATT CONN SNAP 9V 1 CEL 4" LEADS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36-232-ND
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Preci-dip</t>
+  </si>
+  <si>
+    <t>801-87-032-10-001101</t>
+  </si>
+  <si>
+    <t>Dupoint header pins (straight)</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">437-8018703210001101
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">801-87-036-20-001101
+</t>
+  </si>
+  <si>
+    <t>Dupoint header pins (90 degree)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">437-8018703620001101
+</t>
+  </si>
+  <si>
+    <t>WIR</t>
+  </si>
+  <si>
+    <t>ELEGOO</t>
+  </si>
+  <si>
+    <t>EL-CP-004</t>
   </si>
   <si>
     <t>Breadboard Wire Male-Male Male-Female Female-Female</t>
   </si>
   <si>
+    <t>B01EV70C78</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>OSH Park</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>PCB Boards</t>
+  </si>
+  <si>
+    <t>Oshpark</t>
+  </si>
+  <si>
     <t>TOTAL:</t>
   </si>
   <si>
@@ -189,21 +241,77 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>1.0r1</t>
+    <t>1.Or1</t>
+  </si>
+  <si>
+    <t>Finalizing for presentation</t>
+  </si>
+  <si>
+    <t>1.Or0</t>
   </si>
   <si>
     <t>Cleaned up parts, rough draft of board</t>
+  </si>
+  <si>
+    <t>Arduino Uno:</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Arduino-A000066-ARDUINO-UNO-R3/dp/B008GRTSV6/ref=pd_bxgy_img_sccl_2/140-4189735-5563701?pd_rd_w=FYxpm&amp;content-id=amzn1.sym.7f0cf323-50c6-49e3-b3f9-63546bb79c92&amp;pf_rd_p=7f0cf323-50c6-49e3-b3f9-63546bb79c92&amp;pf_rd_r=DF4K1JTKMVKESNFS74GY&amp;pd_rd_wg=zxawg&amp;pd_rd_r=781a8472-31b9-4bd2-9759-74ff0ebfd508&amp;pd_rd_i=B008GRTSV6&amp;psc=1</t>
+  </si>
+  <si>
+    <t>LCD:</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/HiLetgo-HD44780-I2C1602-Interface-Backlight/dp/B07W5KC65S/ref=sr_1_1_sspa?crid=3132CD12VX2F8&amp;keywords=lcd+display+1602&amp;qid=1670480013&amp;sprefix=lcd+display+1602%2Caps%2C134&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEySUdTRjRaVDZHMzE0JmVuY3J5cHRlZElkPUEwNjAzNjU1MlZVWjg3RU85RTFHJmVuY3J5cHRlZEFkSWQ9QTA4MDMwMjIyQUQ0QUxMR1JRN1lZJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
+  </si>
+  <si>
+    <t>Rotary Encoder:</t>
+  </si>
+  <si>
+    <t>https://tinkersphere.com/buttons-switches/3045-rotary-encoder-module-with-knob.html</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Taiss-KY-040-Encoder-15%C3%9716-5-Arduino/dp/B07F26CT6B?source=ps-sl-shoppingads-lpcontext&amp;ref_=fplfs&amp;psc=1&amp;smid=A2VILSBUHD1UD8</t>
+  </si>
+  <si>
+    <t>^this one has part number and model number, use whichever is easier ig</t>
+  </si>
+  <si>
+    <t>Battery clip connector:</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/keystone-electronics/232/303804</t>
+  </si>
+  <si>
+    <t>^assume we're getting like 4 of these</t>
+  </si>
+  <si>
+    <t>90 degree Dupont header pins - male to female:</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Preci-dip/801-87-036-20-001101?qs=q5BRkYolQ3j1LJ%252BvAZHwNw%3D%3D</t>
+  </si>
+  <si>
+    <t>and the straight ones</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Preci-dip/801-87-032-10-001101?qs=FtMuP6KVi2RAkveJlUgcfA%3D%3D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="mm-dd-yyyy"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -226,8 +334,33 @@
       <color rgb="FF0F1111"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF0F1111"/>
+      <name val="&quot;Amazon Ember&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,8 +373,14 @@
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <left/>
@@ -249,41 +388,82 @@
       <top/>
       <bottom/>
     </border>
+    <border>
+      <top style="thin">
+        <color rgb="FFE7E7E7"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE7E7E7"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,7 +674,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -505,11 +685,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="5.14"/>
-    <col customWidth="1" min="2" max="2" width="30.86"/>
+    <col customWidth="1" min="2" max="2" width="21.29"/>
     <col customWidth="1" min="3" max="3" width="5.86"/>
-    <col customWidth="1" min="4" max="4" width="13.0"/>
-    <col customWidth="1" min="5" max="5" width="26.43"/>
-    <col customWidth="1" min="6" max="6" width="49.14"/>
+    <col customWidth="1" min="4" max="4" width="17.86"/>
+    <col customWidth="1" min="5" max="5" width="20.14"/>
+    <col customWidth="1" min="6" max="6" width="47.57"/>
     <col customWidth="1" min="7" max="7" width="9.0"/>
     <col customWidth="1" min="8" max="8" width="20.86"/>
     <col customWidth="1" min="9" max="10" width="8.86"/>
@@ -533,248 +713,248 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>1.0</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <v>28.5</v>
       </c>
-      <c r="J7" s="4">
-        <f t="shared" ref="J7:J13" si="1">I7*A7</f>
+      <c r="J7" s="5">
+        <f t="shared" ref="J7:J16" si="1">I7*A7</f>
         <v>28.5</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="8">
+      <c r="A8" s="3">
         <v>1.0</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <v>0.76</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="5">
         <f t="shared" si="1"/>
         <v>0.76</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>1.0</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="4">
-        <v>12.43</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="I9" s="10">
+        <v>9.99</v>
+      </c>
+      <c r="J9" s="5">
         <f t="shared" si="1"/>
-        <v>12.43</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>2.0</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
         <v>2.46</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="5">
         <f t="shared" si="1"/>
         <v>4.92</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>1.0</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="11">
+        <v>2242.0</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="4">
-        <v>8.99</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="I11" s="5">
+        <v>1.16</v>
+      </c>
+      <c r="J11" s="5">
         <f t="shared" si="1"/>
-        <v>8.99</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -782,1121 +962,1283 @@
         <v>1.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="E12" s="10">
-        <v>2242.0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1.16</v>
-      </c>
-      <c r="J12" s="4">
+        <v>20</v>
+      </c>
+      <c r="H12" s="15">
+        <v>6.73257216465E11</v>
+      </c>
+      <c r="I12" s="10">
+        <v>9.99</v>
+      </c>
+      <c r="J12" s="10">
         <f t="shared" si="1"/>
-        <v>1.16</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="16">
+        <v>232.0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.55</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="1"/>
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="10">
+        <v>3.26</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="1"/>
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="10">
+        <v>5.28</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="1"/>
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="3">
         <v>1.0</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="D16" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="4">
-        <v>17.99</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="H16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="10">
+        <v>6.98</v>
+      </c>
+      <c r="J16" s="5">
         <f t="shared" si="1"/>
-        <v>17.99</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="12">
-        <f>SUM(J5:J13)</f>
-        <v>74.75</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+        <v>6.98</v>
+      </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="A17" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="J17" s="10">
+        <v>36.0</v>
+      </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="15">
-        <v>44874.0</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="A18" s="19"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="20">
+        <f>SUM(J5:J17)</f>
+        <v>117.58</v>
+      </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="3"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="A21" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="24">
+        <v>44902.0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="A23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="25">
+        <v>44874.0</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="4"/>
+      <c r="F25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="C39" s="3"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="C40" s="3"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="13"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="3"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="3"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="3"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="3"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="22"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="4"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="4"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
     </row>
     <row r="86" ht="12.75" customHeight="1">
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
     </row>
     <row r="93" ht="12.75" customHeight="1">
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
     </row>
     <row r="103" ht="12.75" customHeight="1">
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
     </row>
     <row r="104" ht="12.75" customHeight="1">
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
     </row>
     <row r="105" ht="12.75" customHeight="1">
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
     </row>
     <row r="106" ht="12.75" customHeight="1">
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
     </row>
     <row r="107" ht="12.75" customHeight="1">
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
     </row>
     <row r="108" ht="12.75" customHeight="1">
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
     </row>
     <row r="109" ht="12.75" customHeight="1">
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
     </row>
     <row r="111" ht="12.75" customHeight="1">
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
     </row>
     <row r="114" ht="12.75" customHeight="1">
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
     </row>
     <row r="115" ht="12.75" customHeight="1">
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
     </row>
     <row r="116" ht="12.75" customHeight="1">
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
     </row>
     <row r="117" ht="12.75" customHeight="1">
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
     </row>
     <row r="118" ht="12.75" customHeight="1">
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
     </row>
     <row r="120" ht="12.75" customHeight="1">
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
     </row>
     <row r="121" ht="12.75" customHeight="1">
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
     </row>
     <row r="124" ht="12.75" customHeight="1">
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
     </row>
     <row r="125" ht="12.75" customHeight="1">
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
     </row>
     <row r="126" ht="12.75" customHeight="1">
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
     </row>
     <row r="127" ht="12.75" customHeight="1">
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
     </row>
     <row r="128" ht="12.75" customHeight="1">
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
     </row>
     <row r="129" ht="12.75" customHeight="1">
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
     </row>
     <row r="130" ht="12.75" customHeight="1">
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
     </row>
     <row r="131" ht="12.75" customHeight="1">
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
     </row>
     <row r="132" ht="12.75" customHeight="1">
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
     </row>
     <row r="133" ht="12.75" customHeight="1">
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
     </row>
     <row r="134" ht="12.75" customHeight="1">
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
     </row>
     <row r="135" ht="12.75" customHeight="1">
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
     </row>
     <row r="136" ht="12.75" customHeight="1">
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
     </row>
     <row r="137" ht="12.75" customHeight="1">
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
     </row>
     <row r="138" ht="12.75" customHeight="1">
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
     </row>
     <row r="139" ht="12.75" customHeight="1">
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
     </row>
     <row r="140" ht="12.75" customHeight="1">
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
     </row>
     <row r="141" ht="12.75" customHeight="1">
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
     </row>
     <row r="142" ht="12.75" customHeight="1">
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
     </row>
     <row r="143" ht="12.75" customHeight="1">
-      <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
     </row>
     <row r="144" ht="12.75" customHeight="1">
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
     </row>
     <row r="145" ht="12.75" customHeight="1">
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
     </row>
     <row r="146" ht="12.75" customHeight="1">
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
     </row>
     <row r="147" ht="12.75" customHeight="1">
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
     </row>
     <row r="148" ht="12.75" customHeight="1">
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
     </row>
     <row r="149" ht="12.75" customHeight="1">
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
     </row>
     <row r="150" ht="12.75" customHeight="1">
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
     </row>
     <row r="151" ht="12.75" customHeight="1">
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
     </row>
     <row r="152" ht="12.75" customHeight="1">
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
     </row>
     <row r="153" ht="12.75" customHeight="1">
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
     </row>
     <row r="154" ht="12.75" customHeight="1">
-      <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
     </row>
     <row r="155" ht="12.75" customHeight="1">
-      <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
     </row>
     <row r="156" ht="12.75" customHeight="1">
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
     </row>
     <row r="157" ht="12.75" customHeight="1">
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
     </row>
     <row r="158" ht="12.75" customHeight="1">
-      <c r="I158" s="4"/>
-      <c r="J158" s="4"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
     </row>
     <row r="159" ht="12.75" customHeight="1">
-      <c r="I159" s="4"/>
-      <c r="J159" s="4"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
     </row>
     <row r="160" ht="12.75" customHeight="1">
-      <c r="I160" s="4"/>
-      <c r="J160" s="4"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
     </row>
     <row r="161" ht="12.75" customHeight="1">
-      <c r="I161" s="4"/>
-      <c r="J161" s="4"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
     </row>
     <row r="162" ht="12.75" customHeight="1">
-      <c r="I162" s="4"/>
-      <c r="J162" s="4"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
     </row>
     <row r="163" ht="12.75" customHeight="1">
-      <c r="I163" s="4"/>
-      <c r="J163" s="4"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
     </row>
     <row r="164" ht="12.75" customHeight="1">
-      <c r="I164" s="4"/>
-      <c r="J164" s="4"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
     </row>
     <row r="165" ht="12.75" customHeight="1">
-      <c r="I165" s="4"/>
-      <c r="J165" s="4"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
     </row>
     <row r="166" ht="12.75" customHeight="1">
-      <c r="I166" s="4"/>
-      <c r="J166" s="4"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
     </row>
     <row r="167" ht="12.75" customHeight="1">
-      <c r="I167" s="4"/>
-      <c r="J167" s="4"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
     </row>
     <row r="168" ht="12.75" customHeight="1">
-      <c r="I168" s="4"/>
-      <c r="J168" s="4"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
     </row>
     <row r="169" ht="12.75" customHeight="1">
-      <c r="I169" s="4"/>
-      <c r="J169" s="4"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5"/>
     </row>
     <row r="170" ht="12.75" customHeight="1">
-      <c r="I170" s="4"/>
-      <c r="J170" s="4"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
     </row>
     <row r="171" ht="12.75" customHeight="1">
-      <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5"/>
     </row>
     <row r="172" ht="12.75" customHeight="1">
-      <c r="I172" s="4"/>
-      <c r="J172" s="4"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="5"/>
     </row>
     <row r="173" ht="12.75" customHeight="1">
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5"/>
     </row>
     <row r="174" ht="12.75" customHeight="1">
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5"/>
     </row>
     <row r="175" ht="12.75" customHeight="1">
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5"/>
     </row>
     <row r="176" ht="12.75" customHeight="1">
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="5"/>
     </row>
     <row r="177" ht="12.75" customHeight="1">
-      <c r="I177" s="4"/>
-      <c r="J177" s="4"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5"/>
     </row>
     <row r="178" ht="12.75" customHeight="1">
-      <c r="I178" s="4"/>
-      <c r="J178" s="4"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="5"/>
     </row>
     <row r="179" ht="12.75" customHeight="1">
-      <c r="I179" s="4"/>
-      <c r="J179" s="4"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5"/>
     </row>
     <row r="180" ht="12.75" customHeight="1">
-      <c r="I180" s="4"/>
-      <c r="J180" s="4"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5"/>
     </row>
     <row r="181" ht="12.75" customHeight="1">
-      <c r="I181" s="4"/>
-      <c r="J181" s="4"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5"/>
     </row>
     <row r="182" ht="12.75" customHeight="1">
-      <c r="I182" s="4"/>
-      <c r="J182" s="4"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="5"/>
     </row>
     <row r="183" ht="12.75" customHeight="1">
-      <c r="I183" s="4"/>
-      <c r="J183" s="4"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="5"/>
     </row>
     <row r="184" ht="12.75" customHeight="1">
-      <c r="I184" s="4"/>
-      <c r="J184" s="4"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="5"/>
     </row>
     <row r="185" ht="12.75" customHeight="1">
-      <c r="I185" s="4"/>
-      <c r="J185" s="4"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5"/>
     </row>
     <row r="186" ht="12.75" customHeight="1">
-      <c r="I186" s="4"/>
-      <c r="J186" s="4"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="5"/>
     </row>
     <row r="187" ht="12.75" customHeight="1">
-      <c r="I187" s="4"/>
-      <c r="J187" s="4"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="5"/>
     </row>
     <row r="188" ht="12.75" customHeight="1">
-      <c r="I188" s="4"/>
-      <c r="J188" s="4"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5"/>
     </row>
     <row r="189" ht="12.75" customHeight="1">
-      <c r="I189" s="4"/>
-      <c r="J189" s="4"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5"/>
     </row>
     <row r="190" ht="12.75" customHeight="1">
-      <c r="I190" s="4"/>
-      <c r="J190" s="4"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5"/>
     </row>
     <row r="191" ht="12.75" customHeight="1">
-      <c r="I191" s="4"/>
-      <c r="J191" s="4"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
     </row>
     <row r="192" ht="12.75" customHeight="1">
-      <c r="I192" s="4"/>
-      <c r="J192" s="4"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
     </row>
     <row r="193" ht="12.75" customHeight="1">
-      <c r="I193" s="4"/>
-      <c r="J193" s="4"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="5"/>
     </row>
     <row r="194" ht="12.75" customHeight="1">
-      <c r="I194" s="4"/>
-      <c r="J194" s="4"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
     </row>
     <row r="195" ht="12.75" customHeight="1">
-      <c r="I195" s="4"/>
-      <c r="J195" s="4"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5"/>
     </row>
     <row r="196" ht="12.75" customHeight="1">
-      <c r="I196" s="4"/>
-      <c r="J196" s="4"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5"/>
     </row>
     <row r="197" ht="12.75" customHeight="1">
-      <c r="I197" s="4"/>
-      <c r="J197" s="4"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5"/>
     </row>
     <row r="198" ht="12.75" customHeight="1">
-      <c r="I198" s="4"/>
-      <c r="J198" s="4"/>
+      <c r="I198" s="5"/>
+      <c r="J198" s="5"/>
     </row>
     <row r="199" ht="12.75" customHeight="1">
-      <c r="I199" s="4"/>
-      <c r="J199" s="4"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5"/>
     </row>
     <row r="200" ht="12.75" customHeight="1">
-      <c r="I200" s="4"/>
-      <c r="J200" s="4"/>
+      <c r="I200" s="5"/>
+      <c r="J200" s="5"/>
     </row>
     <row r="201" ht="12.75" customHeight="1">
-      <c r="I201" s="4"/>
-      <c r="J201" s="4"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="5"/>
     </row>
     <row r="202" ht="12.75" customHeight="1">
-      <c r="I202" s="4"/>
-      <c r="J202" s="4"/>
+      <c r="I202" s="5"/>
+      <c r="J202" s="5"/>
     </row>
     <row r="203" ht="12.75" customHeight="1">
-      <c r="I203" s="4"/>
-      <c r="J203" s="4"/>
+      <c r="I203" s="5"/>
+      <c r="J203" s="5"/>
     </row>
     <row r="204" ht="12.75" customHeight="1">
-      <c r="I204" s="4"/>
-      <c r="J204" s="4"/>
+      <c r="I204" s="5"/>
+      <c r="J204" s="5"/>
     </row>
     <row r="205" ht="12.75" customHeight="1">
-      <c r="I205" s="4"/>
-      <c r="J205" s="4"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5"/>
     </row>
     <row r="206" ht="12.75" customHeight="1">
-      <c r="I206" s="4"/>
-      <c r="J206" s="4"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="5"/>
     </row>
     <row r="207" ht="12.75" customHeight="1">
-      <c r="I207" s="4"/>
-      <c r="J207" s="4"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="5"/>
     </row>
     <row r="208" ht="12.75" customHeight="1">
-      <c r="I208" s="4"/>
-      <c r="J208" s="4"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="5"/>
     </row>
     <row r="209" ht="12.75" customHeight="1">
-      <c r="I209" s="4"/>
-      <c r="J209" s="4"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5"/>
     </row>
     <row r="210" ht="12.75" customHeight="1">
-      <c r="I210" s="4"/>
-      <c r="J210" s="4"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="5"/>
     </row>
     <row r="211" ht="12.75" customHeight="1">
-      <c r="I211" s="4"/>
-      <c r="J211" s="4"/>
+      <c r="I211" s="5"/>
+      <c r="J211" s="5"/>
     </row>
     <row r="212" ht="12.75" customHeight="1">
-      <c r="I212" s="4"/>
-      <c r="J212" s="4"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5"/>
     </row>
     <row r="213" ht="12.75" customHeight="1">
-      <c r="I213" s="4"/>
-      <c r="J213" s="4"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5"/>
     </row>
     <row r="214" ht="12.75" customHeight="1">
-      <c r="I214" s="4"/>
-      <c r="J214" s="4"/>
+      <c r="I214" s="5"/>
+      <c r="J214" s="5"/>
     </row>
     <row r="215" ht="12.75" customHeight="1">
-      <c r="I215" s="4"/>
-      <c r="J215" s="4"/>
+      <c r="I215" s="5"/>
+      <c r="J215" s="5"/>
     </row>
     <row r="216" ht="12.75" customHeight="1">
-      <c r="I216" s="4"/>
-      <c r="J216" s="4"/>
+      <c r="I216" s="5"/>
+      <c r="J216" s="5"/>
     </row>
     <row r="217" ht="12.75" customHeight="1">
-      <c r="I217" s="4"/>
-      <c r="J217" s="4"/>
+      <c r="I217" s="5"/>
+      <c r="J217" s="5"/>
     </row>
     <row r="218" ht="12.75" customHeight="1">
-      <c r="I218" s="4"/>
-      <c r="J218" s="4"/>
+      <c r="I218" s="5"/>
+      <c r="J218" s="5"/>
     </row>
     <row r="219" ht="12.75" customHeight="1">
-      <c r="I219" s="4"/>
-      <c r="J219" s="4"/>
+      <c r="I219" s="5"/>
+      <c r="J219" s="5"/>
     </row>
     <row r="220" ht="12.75" customHeight="1">
-      <c r="I220" s="4"/>
-      <c r="J220" s="4"/>
-    </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="5"/>
+    </row>
+    <row r="221" ht="12.75" customHeight="1">
+      <c r="I221" s="5"/>
+      <c r="J221" s="5"/>
+    </row>
+    <row r="222" ht="12.75" customHeight="1">
+      <c r="I222" s="5"/>
+      <c r="J222" s="5"/>
+    </row>
+    <row r="223" ht="12.75" customHeight="1">
+      <c r="I223" s="5"/>
+      <c r="J223" s="5"/>
+    </row>
+    <row r="224" ht="12.75" customHeight="1">
+      <c r="I224" s="5"/>
+      <c r="J224" s="5"/>
+    </row>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -2673,10 +3015,23 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="F26"/>
+    <hyperlink r:id="rId2" ref="F28"/>
+    <hyperlink r:id="rId3" ref="F30"/>
+    <hyperlink r:id="rId4" ref="F32"/>
+    <hyperlink r:id="rId5" ref="F36"/>
+    <hyperlink r:id="rId6" ref="F40"/>
+    <hyperlink r:id="rId7" ref="F42"/>
+  </hyperlinks>
   <printOptions/>
-  <pageMargins bottom="1.66666666666667" footer="0.0" header="0.0" left="1.0" right="1.0" top="1.66666666666667"/>
+  <pageMargins bottom="5.368150684931507" footer="0.0" header="0.0" left="0.13184931506849315" right="0.16952054794520546" top="0.16952054794520546"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>